--- a/biology/Botanique/Annickia_polycarpa/Annickia_polycarpa.xlsx
+++ b/biology/Botanique/Annickia_polycarpa/Annickia_polycarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annickia letestui (Moambe jaune en français) est une espèce de plantes de la famille des Annonaceae et du genre Annickia, présente en Afrique tropicale.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite en 1817 sous le nom de Annona polycarpa par Alphonse Pyrame de Candolle puis renommée en 1990 par A.K. van Setten &amp; Paulus Johannes Maria Maas[1]
-Synonymes
-Les synonymes sont les suivants selon GBIF[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1817 sous le nom de Annona polycarpa par Alphonse Pyrame de Candolle puis renommée en 1990 par A.K. van Setten &amp; Paulus Johannes Maria Maas
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Annickia_polycarpa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annickia_polycarpa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les synonymes sont les suivants selon GBIF :
 Annickia polycarpa (DC.) Setten &amp; Maas ex I.M.Turner
 Annona polycarpa DC.
 Coelocline polycarpa A.DC.
@@ -527,32 +576,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Annickia_polycarpa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Annickia_polycarpa</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -574,10 +597,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,12 +625,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Annickia_polycarpa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Annickia_polycarpa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant.
 </t>
         </is>
       </c>
